--- a/references/パルス調査のサンプルの質問.xlsx
+++ b/references/パルス調査のサンプルの質問.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18315" windowHeight="7380"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B:$D</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -718,8 +721,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,7 +925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -996,7 +999,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1031,7 +1033,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,14 +1208,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="67.25" customWidth="1"/>
@@ -1222,20 +1226,20 @@
     <col min="4" max="4" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" ht="37.5">
       <c r="B4" s="15" t="s">
         <v>110</v>
       </c>
@@ -1243,11 +1247,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="2"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1255,11 +1259,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="2"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" ht="40.5">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1267,11 +1271,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="B9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" ht="54">
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1279,11 +1283,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" ht="27">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1291,11 +1295,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="B13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" ht="27">
       <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1303,11 +1307,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" ht="54">
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1315,11 +1319,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="27">
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -1327,11 +1331,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="40.5">
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
@@ -1339,11 +1343,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="27">
       <c r="B22" s="9" t="s">
         <v>9</v>
       </c>
@@ -1351,11 +1355,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="B23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="54">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
@@ -1363,11 +1367,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
@@ -1375,11 +1379,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="B27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="27">
       <c r="B28" s="8" t="s">
         <v>12</v>
       </c>
@@ -1387,11 +1391,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4">
       <c r="B29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4">
       <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
@@ -1399,11 +1403,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4">
       <c r="B31" s="8"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="40.5">
       <c r="B32" s="7" t="s">
         <v>14</v>
       </c>
@@ -1411,11 +1415,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4">
       <c r="B33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1427,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4">
       <c r="B35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="27">
       <c r="B36" s="8" t="s">
         <v>16</v>
       </c>
@@ -1435,11 +1439,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4">
       <c r="B37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4">
       <c r="B38" s="9" t="s">
         <v>17</v>
       </c>
@@ -1447,11 +1451,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4">
       <c r="B39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" ht="40.5">
       <c r="B40" s="8" t="s">
         <v>18</v>
       </c>
@@ -1459,11 +1463,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4">
       <c r="B41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" ht="27">
       <c r="B42" s="9" t="s">
         <v>19</v>
       </c>
@@ -1471,11 +1475,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4">
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:4" ht="27">
       <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
@@ -1483,11 +1487,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4">
       <c r="B45" s="6"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4">
       <c r="B46" s="9" t="s">
         <v>21</v>
       </c>
@@ -1495,11 +1499,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:4">
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:4" ht="40.5">
       <c r="B48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1507,11 +1511,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4">
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4">
       <c r="B50" s="9" t="s">
         <v>23</v>
       </c>
@@ -1519,11 +1523,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4">
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" ht="40.5">
       <c r="B52" s="8" t="s">
         <v>24</v>
       </c>
@@ -1531,11 +1535,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4">
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4">
       <c r="B54" s="9" t="s">
         <v>25</v>
       </c>
@@ -1543,11 +1547,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4">
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" ht="27">
       <c r="B56" s="8" t="s">
         <v>26</v>
       </c>
@@ -1555,11 +1559,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4">
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4">
       <c r="B58" s="9" t="s">
         <v>27</v>
       </c>
@@ -1567,11 +1571,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4">
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="2:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" ht="41.25" thickBot="1">
       <c r="B60" s="8" t="s">
         <v>22</v>
       </c>
@@ -1579,11 +1583,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" ht="14.25" thickBot="1">
       <c r="B61" s="10"/>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" ht="27">
       <c r="B62" s="7" t="s">
         <v>28</v>
       </c>
@@ -1591,11 +1595,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4">
       <c r="B63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4">
       <c r="B64" s="9" t="s">
         <v>29</v>
       </c>
@@ -1603,11 +1607,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4">
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" ht="27">
       <c r="B66" s="8" t="s">
         <v>30</v>
       </c>
@@ -1615,11 +1619,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4">
       <c r="B67" s="6"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4">
       <c r="B68" s="9" t="s">
         <v>31</v>
       </c>
@@ -1627,11 +1631,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4">
       <c r="B69" s="8"/>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:4" ht="27">
       <c r="B70" s="8" t="s">
         <v>32</v>
       </c>
@@ -1639,11 +1643,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:4">
       <c r="B71" s="6"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:4">
       <c r="B72" s="9" t="s">
         <v>33</v>
       </c>
@@ -1651,11 +1655,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4">
       <c r="B73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:4" ht="40.5">
       <c r="B74" s="8" t="s">
         <v>34</v>
       </c>
@@ -1663,11 +1667,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:4">
       <c r="B75" s="6"/>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="2:4" ht="26.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:4" ht="26.25">
       <c r="B76" s="11" t="s">
         <v>35</v>
       </c>
@@ -1675,11 +1679,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:4">
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" ht="27.75" thickBot="1">
       <c r="B78" s="12" t="s">
         <v>36</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" ht="14.25" thickBot="1">
       <c r="B79" s="12" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" ht="14.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>38</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" ht="14.25" thickBot="1">
       <c r="B81" s="12" t="s">
         <v>39</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" ht="27.75" thickBot="1">
       <c r="B82" s="12" t="s">
         <v>40</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" ht="14.25" thickBot="1">
       <c r="B83" s="12" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" ht="27.75" thickBot="1">
       <c r="B84" s="12" t="s">
         <v>42</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" ht="14.25" thickBot="1">
       <c r="B85" s="12" t="s">
         <v>43</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" ht="14.25" thickBot="1">
       <c r="B86" s="12" t="s">
         <v>44</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" ht="14.25" thickBot="1">
       <c r="B87" s="12" t="s">
         <v>45</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" ht="27.75" thickBot="1">
       <c r="B88" s="12" t="s">
         <v>46</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" ht="14.25" thickBot="1">
       <c r="B89" s="12" t="s">
         <v>47</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" ht="14.25" thickBot="1">
       <c r="B90" s="12" t="s">
         <v>48</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" ht="14.25" thickBot="1">
       <c r="B91" s="12" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" ht="27.75" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" ht="27.75" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>51</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" ht="27.75" thickBot="1">
       <c r="B94" s="12" t="s">
         <v>52</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:4" ht="27">
       <c r="B95" s="8" t="s">
         <v>53</v>
       </c>
@@ -1823,16 +1827,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:4">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2">
       <c r="B97" s="13"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:2">
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:2">
       <c r="B99" s="4" t="s">
         <v>54</v>
       </c>
@@ -1850,16 +1854,17 @@
     <hyperlink ref="D62" r:id="rId8" display="https://www.fridayfeedback.com/free-pulse-survey"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1867,12 +1872,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
